--- a/Dokumente/M293-Selbstbewertung-Scherer-Yannik.xlsx
+++ b/Dokumente/M293-Selbstbewertung-Scherer-Yannik.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanni\OneDrive\Dokumente\meine-projektseite\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB950B34-E1A9-4528-AAF4-2D5463D24D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5983C2F-A845-4C92-94E3-2B0357782E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{331714C9-1444-C841-92DD-9A356C4C8613}"/>
   </bookViews>
@@ -161,73 +161,73 @@
     <t>Hosting-Anbieter gewählt, Webauftritt auf Webserver veröffentlicht, alle Seiten und Links getestet.</t>
   </si>
   <si>
-    <t>Was habe ich erreicht? Ich habe eigentlich alles erreicht, was ich wollte. Ich habe es geschafft alle Seiten so zu designen und meine Website, wie ich es mir vorgestellt habe zu strukturieren.</t>
-  </si>
-  <si>
     <t>Yannik Scherer</t>
   </si>
   <si>
-    <t>Was habe ich erreicht? Ich finde ich habe mich gut darab gehalten und die Seite sinvoll strukturiert. Ich habe eine Mainseite (index.html) erstellt von der man in jede andere Seite navigieren kann. Auf dieser werden alle meine neusten Produkte angezeigt.</t>
-  </si>
-  <si>
-    <t>Was habe ich erreicht? Ich habe meine Navigation hauptsächlich mit Bildern gestaltet. Beim Warenkorb habe ich z.B ein Piktogramm eines Warenkorbes genommen. Das Homeverzeichnis habe ich per Logo verlinkt, so ist die Homepage von allen Unterseiten erreichbar. Die Texte  der Website, habe ich auch nochmal mit Korrektur-Ai's kontrolliert.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Was habe ich erreicht? Ich schaffte es meine Seite per GitHub zu veröffentlichen. Alle Unterseiten, so wie Links und Java-Script Files funktonieren. Die Funktionen wie Kontakformular und Warenkorb laufen einwandfrei. </t>
-  </si>
-  <si>
-    <t>Was habe ich erreicht? Die Hauptseite sowie auch die ganzen Unterseiten, sind nachdem Styleguide gerichtet. Sie haben alle die gleichen Farben und Strukturen, sowie auch Schriftarten.</t>
-  </si>
-  <si>
-    <t>Was habe ich erreicht? Ich habe einiges gelernt, wie z.B die Definierung von Media-Querys. Dies hatte ich noch nie zuvor gesehen und angewendet. Auch die Geschichte von HTML und CSS ist mir neu. Es ist sehr spannend zu wissen, wie das ganze Entstand und für welche Zwecke dies anfänglich diente.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Was habe ich übertroffen? Ich bin sehr überrascht, wie ähnlich, meine Website meinem Wireframe ist. </t>
-  </si>
-  <si>
-    <t>Was habe ich übertroffen? Ich bin mehr als zufreiden damit, wie meine Hauptseite und meine Unterseiten, die gleichen Farben und Strukturen haben.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Was habe ich übertroffen? Die Navigation und Struktur der Seiten ist sinnvoll und logisch aufgebaut.	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Was habe ich übertroffen?  Ich habe erfolgreich Media Queries verwendet, obwohl ich vorher keine Erfahrung damit hatte.	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Was habe ich übertroffen? Wichtige Funktionen wie der Warenkorb sind klar und intuitiv durch Symbole dargestellt.	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Was habe ich übertroffen? Technische Funktionen wie das Kontaktformular und der Warenkorb sind voll funktionsfähig und getestet.	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Was habe ich übertroffen? Ich habe mich erfolgreich in neue Techniken eingearbeitet und vertiefte mein Verständnis von HTML und CSS.	</t>
-  </si>
-  <si>
     <t xml:space="preserve">Was habe ich übertroffen? </t>
   </si>
   <si>
-    <t>Was habe ich nicht erreicht? Ich habe hier alles erreicht…</t>
-  </si>
-  <si>
-    <t>Was habe ich nicht erreicht? Ich habe alles erricht, ich habe überall die gleichen Schriftarten und Farben…</t>
-  </si>
-  <si>
-    <t>Was habe ich nicht erreicht? Da cih dachte, dass ich alles schon kann, habe ich mir die Lernfelder nie genau durchgelsen. Als ich dann aber die Quiz wiederholen musste, merkte ich wie wichtig es ist, sich die Sachen durchzulesen.</t>
-  </si>
-  <si>
-    <t>Was habe ich nicht erreicht? Ich habe alle erreicht, aussder die Funktion der Suchleiste. Diese funktioniert nach der Veröffentlichnug nichmehr.</t>
-  </si>
-  <si>
-    <t>Was habe ich erreicht? Das Responsive Desgin ist mir sehr gut gelungen. Ich hatte zuvor noch nie etwas mit Media Querys zu tun, doch dafür ist es mir sehr gut gelungen. Es sieht auf allen Geräten wie Handy, Tablet und Desktop gut aus und ist auch dementsprechend benutzerfreundlich.</t>
-  </si>
-  <si>
-    <t>Was habe ich nicht erreicht? Ich habe alles erreicht…</t>
-  </si>
-  <si>
-    <t>Was habe ich nicht erreicht? Ich habe alles erreicht, bis auf die Verwendung von Grid- und Flex-Layouts.</t>
-  </si>
-  <si>
-    <t>Was habe ich nicht erreicht? Ich habe hier alles erreciht, die Website ist auf allen möglichen Geräten zu erreichen und wird vom Desgin auch dem entsprechend angepasst.</t>
+    <t>Was habe ich erreicht? Ich habe eigentlich alles erreicht, was ich wollte. Ich habe es geschafft, alle Seiten so zu designen und meine Website, wie ich es mir vorgestellt habe, zu strukturieren. Alle Anforderungen wurden analysiert und die Wireframes gemäß der Sitemap erstellt und abgegeben.</t>
+  </si>
+  <si>
+    <t>Was habe ich übertroffen? Ich bin sehr überrascht, wie ähnlich meine Website meinem Wireframe ist. Der Detaillierungsgrad und die Übereinstimmung mit den ursprünglichen Skizzen sind höher als erwartet.</t>
+  </si>
+  <si>
+    <t>Was habe ich nicht erreicht? Ich habe hier alles erreicht und keine offenen Punkte hinterlassen. Alle geplanten Aktivitäten und Ziele wurden erfolgreich umgesetzt.</t>
+  </si>
+  <si>
+    <t>Was habe ich erreicht? Die Hauptseite sowie auch die ganzen Unterseiten sind nach dem Styleguide gestaltet. Sie haben alle die gleichen Farben und Strukturen sowie auch Schriftarten. Die Konsistenz der visuellen Elemente wurde beibehalten.</t>
+  </si>
+  <si>
+    <t>Was habe ich übertroffen? Ich bin mehr als zufrieden damit, wie meine Hauptseite und meine Unterseiten die gleichen Farben und Strukturen haben. Die visuelle Kohärenz hat die Benutzererfahrung deutlich verbessert.</t>
+  </si>
+  <si>
+    <t>Was habe ich nicht erreicht? Ich habe alles erreicht; ich habe überall die gleichen Schriftarten und Farben verwendet und keine Design-Richtlinien verletzt.</t>
+  </si>
+  <si>
+    <t>Was habe ich erreicht? Ich finde, ich habe mich gut daran gehalten und die Seite sinnvoll strukturiert. Ich habe eine Hauptseite (index.html) erstellt, von der man in jede andere Seite navigieren kann. Auf dieser Seite werden alle meine neuesten Produkte angezeigt.</t>
+  </si>
+  <si>
+    <t>Was habe ich übertroffen? Die Navigation und Struktur der Seiten ist sinnvoll und logisch aufgebaut. Alle Seiten sind leicht zugänglich, und die Benutzerführung ist intuitiv gestaltet.</t>
+  </si>
+  <si>
+    <t>Was habe ich nicht erreicht? Ich habe alles erreicht, bis auf die vollständige Nutzung von Grid- und Flex-Layouts. In einigen Bereichen könnte die Layout-Technik weiter optimiert werden.</t>
+  </si>
+  <si>
+    <t>Was habe ich erreicht? Das Responsive Design ist mir sehr gut gelungen. Ich hatte zuvor noch nie etwas mit Media Queries zu tun, doch dafür ist es mir sehr gut gelungen. Es sieht auf allen Geräten wie Handy, Tablet und Desktop gut aus und ist auch dementsprechend benutzerfreundlich.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Was habe ich übertroffen?  Ich habe erfolgreich Media Queries verwendet, obwohl ich vorher keine Erfahrung damit hatte. Die Website reagiert hervorragend auf verschiedene Bildschirmgrößen und Geräte.	</t>
+  </si>
+  <si>
+    <t>Was habe ich nicht erreicht? Ich habe hier alles erreicht; die Website ist auf allen möglichen Geräten zu erreichen und wird vom Design auch dementsprechend angepasst. Es gibt keine bekannten Probleme mit der Reaktionsfähigkeit.</t>
+  </si>
+  <si>
+    <t>Was habe ich erreicht? Ich habe meine Navigation hauptsächlich mit Bildern gestaltet. Beim Warenkorb habe ich z.B. ein Piktogramm eines Warenkorbes genommen. Das Homeverzeichnis habe ich per Logo verlinkt, so ist die Homepage von allen Unterseiten erreichbar. Die Texte der Website habe ich auch nochmal mit Korrektur-Tools kontrolliert.</t>
+  </si>
+  <si>
+    <t>Was habe ich übertroffen? Wichtige Funktionen wie der Warenkorb sind klar und intuitiv durch Symbole dargestellt. Die Benutzerfreundlichkeit wurde dadurch erheblich verbessert.</t>
+  </si>
+  <si>
+    <t>Was habe ich nicht erreicht? Ich habe alles erreicht und keine offenen Punkte hinterlassen. Die Inhalte entsprechen den Anforderungen und sind in hoher Qualität vorhanden.</t>
+  </si>
+  <si>
+    <t>Was habe ich erreicht? Ich schaffte es, meine Seite per GitHub zu veröffentlichen. Alle Unterseiten sowie Links und JavaScript-Dateien funktionieren. Die Funktionen wie Kontaktformular und Warenkorb laufen einwandfrei.</t>
+  </si>
+  <si>
+    <t>Was habe ich übertroffen? Technische Funktionen wie das Kontaktformular und der Warenkorb sind voll funktionsfähig und getestet. Auch die Geschwindigkeit und Zuverlässigkeit der Website wurden optimiert.</t>
+  </si>
+  <si>
+    <t>Was habe ich nicht erreicht? Ich habe alles erreicht, außer die Funktion der Suchleiste. Diese funktioniert nach der Veröffentlichung nicht mehr, und ich plane, dies bald zu beheben.</t>
+  </si>
+  <si>
+    <t>Was habe ich erreicht? Ich habe einiges gelernt, wie z.B. die Definition von Media Queries. Dies hatte ich noch nie zuvor gesehen und angewendet. Auch die Geschichte von HTML und CSS ist mir neu. Es ist sehr spannend zu wissen, wie das Ganze entstand und für welche Zwecke dies anfänglich diente.</t>
+  </si>
+  <si>
+    <t>Was habe ich übertroffen? Ich habe mich erfolgreich in neue Techniken eingearbeitet und vertiefte mein Verständnis von HTML und CSS. Meine Kenntnisse in modernen Webtechnologien haben sich deutlich verbessert.</t>
+  </si>
+  <si>
+    <t>Was habe ich nicht erreicht? Da ich dachte, dass ich alles schon kann, habe ich mir die Lernfelder nie genau durchgelesen. Als ich dann aber die Quiz wiederholen musste, merkte ich, wie wichtig es ist, sich die Sachen durchzulesen. Ich plane, diese Bereiche nachzuholen und mein Wissen zu vertiefen.</t>
   </si>
 </sst>
 </file>
@@ -748,9 +748,9 @@
   </sheetPr>
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="43" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -813,13 +813,13 @@
         <v>31</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="14"/>
@@ -843,10 +843,10 @@
         <v>46</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I3" s="17"/>
       <c r="K3" s="17"/>
@@ -865,13 +865,13 @@
         <v>37</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>50</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="H4" s="13"/>
       <c r="I4" s="19"/>
@@ -892,13 +892,13 @@
         <v>32</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="I5" s="17"/>
       <c r="K5" s="17"/>
@@ -917,13 +917,13 @@
         <v>38</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="19"/>
@@ -942,13 +942,13 @@
         <v>40</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="19"/>
@@ -969,13 +969,13 @@
         <v>29</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="19"/>
@@ -999,7 +999,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G9" s="13" t="s">
         <v>6</v>
@@ -1056,7 +1056,7 @@
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
@@ -1219,18 +1219,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1252,14 +1252,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A42F660-38E7-496A-8760-F3704433DF17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA2F5092-9039-44D2-BF16-6451B1BE8581}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -1272,4 +1264,12 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A42F660-38E7-496A-8760-F3704433DF17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>